--- a/score/GIS_DC/GIS_DC.xlsx
+++ b/score/GIS_DC/GIS_DC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Python\Tiểu luận - NMLT\score\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\python\TL\TLGiang\score\GIS_DC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194914C1-7ABC-4EAC-8DA8-9D426B3FCB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,16 +394,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,7 +446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -464,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -484,7 +486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -504,7 +506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -524,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -544,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -564,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -584,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -604,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -624,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -644,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -664,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -684,7 +686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -704,7 +706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -724,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -744,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -764,7 +766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -784,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -804,7 +806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>

--- a/score/GIS_DC/GIS_DC.xlsx
+++ b/score/GIS_DC/GIS_DC.xlsx
@@ -9,11 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="gi01A" sheetId="1" r:id="rId1"/>
+    <sheet name="gi01B" sheetId="3" r:id="rId2"/>
+    <sheet name="gi02A" sheetId="2" r:id="rId3"/>
+    <sheet name="gi02B" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">gi01B!$B$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="195">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Tên</t>
-  </si>
-  <si>
     <t>MSSV</t>
   </si>
   <si>
@@ -44,40 +47,574 @@
     <t>Cuối kỳ</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
     <t>DH22HM01</t>
   </si>
   <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn C</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn D</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn E</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn F</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn G</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn H</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn I</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn K</t>
-  </si>
-  <si>
     <t>DH21HM01</t>
+  </si>
+  <si>
+    <t>Bùi Thị Ái</t>
+  </si>
+  <si>
+    <t>Trần Văn Tuấn An</t>
+  </si>
+  <si>
+    <t>Trần Văn Ân</t>
+  </si>
+  <si>
+    <t>Bùi Thị Quỳnh Anh</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Phương Anh</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Trâm Anh</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Mai Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hà Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Xuân Anh</t>
+  </si>
+  <si>
+    <t>Trần Văn Tuấn Anh</t>
+  </si>
+  <si>
+    <t>Bùi Thị Đan</t>
+  </si>
+  <si>
+    <t>Lê Thị Đan</t>
+  </si>
+  <si>
+    <t>Mai Văn Đăng</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đăng</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Đào</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Đào</t>
+  </si>
+  <si>
+    <t>Vũ Văn Đình</t>
+  </si>
+  <si>
+    <t>Lý Văn Dương</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hương Giang</t>
+  </si>
+  <si>
+    <t>Lý Văn Minh Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Hiền</t>
+  </si>
+  <si>
+    <t>Trần Văn Hiền</t>
+  </si>
+  <si>
+    <t>Mai Văn Hòa</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hòa</t>
+  </si>
+  <si>
+    <t>Trần Văn Xuân Hùng</t>
+  </si>
+  <si>
+    <t>Vũ Văn Hưng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Khánh</t>
+  </si>
+  <si>
+    <t>Trần Văn Khôi</t>
+  </si>
+  <si>
+    <t>Lê Thị Kiều Loan</t>
+  </si>
+  <si>
+    <t>Trần Văn Thành Long</t>
+  </si>
+  <si>
+    <t>Phạm Văn Lực</t>
+  </si>
+  <si>
+    <t>Lý Văn Đức Minh</t>
+  </si>
+  <si>
+    <t>Bùi Thị Trà My</t>
+  </si>
+  <si>
+    <t>Trần Văn Nguyên</t>
+  </si>
+  <si>
+    <t>Ngô Thị Nguyệt</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Yến Nhi</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Thảo Nhi</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Uyển Nhi</t>
+  </si>
+  <si>
+    <t>Mai Văn Phú</t>
+  </si>
+  <si>
+    <t>Vũ Văn Phước</t>
+  </si>
+  <si>
+    <t>Trần Văn Quốc</t>
+  </si>
+  <si>
+    <t>Lê Thị Sáng</t>
+  </si>
+  <si>
+    <t>Phạm Văn Sỹ</t>
+  </si>
+  <si>
+    <t>Phạm Văn Tài</t>
+  </si>
+  <si>
+    <t>Lý Văn Thông</t>
+  </si>
+  <si>
+    <t>Ngô Thị Thu</t>
+  </si>
+  <si>
+    <t>Mai Văn Thủy</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Tiên</t>
+  </si>
+  <si>
+    <t>Mai Văn Tiến</t>
+  </si>
+  <si>
+    <t>Phạm Văn Tín</t>
+  </si>
+  <si>
+    <t>Ngô Thị Thùy Trang</t>
+  </si>
+  <si>
+    <t>Vũ Văn Trí</t>
+  </si>
+  <si>
+    <t>Lê Thị Tú</t>
+  </si>
+  <si>
+    <t>Lê Thị Tuệ</t>
+  </si>
+  <si>
+    <t>Vũ Văn Tùng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Tuyết</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Uyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Vân</t>
+  </si>
+  <si>
+    <t>Lý Văn Việt</t>
+  </si>
+  <si>
+    <t>Lý Văn Vinh</t>
+  </si>
+  <si>
+    <t>Trần Văn Vĩnh</t>
+  </si>
+  <si>
+    <t>Ngô Thị Xuân</t>
+  </si>
+  <si>
+    <t>Mai Văn Xuyên</t>
+  </si>
+  <si>
+    <t>Vũ Văn Yên</t>
+  </si>
+  <si>
+    <t>Ngô Thị Yến</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hoài An</t>
+  </si>
+  <si>
+    <t>DH21HM02</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hoài An</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị An</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hải Anh</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đạt Anh</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đức Anh</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Trần Văn Bảo</t>
+  </si>
+  <si>
+    <t>Đặng Văn Đức</t>
+  </si>
+  <si>
+    <t>Trần Văn Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Dung</t>
+  </si>
+  <si>
+    <t>Ngô Thị Dương</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hương Giang</t>
+  </si>
+  <si>
+    <t>Lê Thị Hà</t>
+  </si>
+  <si>
+    <t>Lý Văn Hải</t>
+  </si>
+  <si>
+    <t>Mai Văn Hải</t>
+  </si>
+  <si>
+    <t>Trần Văn Hải</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hạnh</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hạnh</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hạnh</t>
+  </si>
+  <si>
+    <t>Mai Văn Hào</t>
+  </si>
+  <si>
+    <t>Trần Văn Hiệp</t>
+  </si>
+  <si>
+    <t>Trần Văn Hiếu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoài</t>
+  </si>
+  <si>
+    <t>Trần Văn Hoàng</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hồng</t>
+  </si>
+  <si>
+    <t>Trần Văn Hồng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Huệ</t>
+  </si>
+  <si>
+    <t>Lý Văn Hùng</t>
+  </si>
+  <si>
+    <t>Mai Văn Hùng</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hùng</t>
+  </si>
+  <si>
+    <t>Trần Văn Hùng</t>
+  </si>
+  <si>
+    <t>Vũ Văn Hùng</t>
+  </si>
+  <si>
+    <t>Trần Văn Hưng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hương</t>
+  </si>
+  <si>
+    <t>Lê Thị Hương</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hữu</t>
+  </si>
+  <si>
+    <t>Phạm Văn Huy</t>
+  </si>
+  <si>
+    <t>Vũ Văn Huy</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Huyền</t>
+  </si>
+  <si>
+    <t>Lý Văn Huyền</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Huyền</t>
+  </si>
+  <si>
+    <t>Lê Thị Hà My</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hồng Ngọc</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Diệu Ngọc</t>
+  </si>
+  <si>
+    <t>Lê Thị Hồng Ngọc</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Nhung</t>
+  </si>
+  <si>
+    <t>Bùi Thị Huyền Trang</t>
+  </si>
+  <si>
+    <t>Lê Thị Đoan Trang</t>
+  </si>
+  <si>
+    <t>Ngô Thị Huyền Trang</t>
+  </si>
+  <si>
+    <t>Lê Thị Cát Tường</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hải Yến</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hải Yến</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hoàng Yến</t>
+  </si>
+  <si>
+    <t>DH22HM02</t>
+  </si>
+  <si>
+    <t>Lý Văn Khoa</t>
+  </si>
+  <si>
+    <t>Trần Văn Khánh</t>
+  </si>
+  <si>
+    <t>Đặng Văn Quân</t>
+  </si>
+  <si>
+    <t>Bùi Thị Xuân</t>
+  </si>
+  <si>
+    <t>Phạm Văn Yên</t>
+  </si>
+  <si>
+    <t>Lê Thị Quỳnh Anh</t>
+  </si>
+  <si>
+    <t>Trần Văn Lâm</t>
+  </si>
+  <si>
+    <t>Lý Văn Đức Anh</t>
+  </si>
+  <si>
+    <t>Lý Văn Long</t>
+  </si>
+  <si>
+    <t>Phạm Văn Thuận</t>
+  </si>
+  <si>
+    <t>Trần Văn Hào</t>
+  </si>
+  <si>
+    <t>DH20HM01</t>
+  </si>
+  <si>
+    <t>DH20HM02</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hoa</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Đặng</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Lê Thị Huyền Trang</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hoài Thương</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hương Trà</t>
+  </si>
+  <si>
+    <t>Lê Thị Mai</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hồng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoàng Yến</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hưng</t>
+  </si>
+  <si>
+    <t>Trần Văn Linh</t>
+  </si>
+  <si>
+    <t>Trần Văn Thành</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hồng</t>
+  </si>
+  <si>
+    <t>Mai Văn Đức Anh</t>
+  </si>
+  <si>
+    <t>Mai Văn Hưng</t>
+  </si>
+  <si>
+    <t>Mai Văn Huy</t>
+  </si>
+  <si>
+    <t>Mai Văn Huyền</t>
+  </si>
+  <si>
+    <t>Ngô Thị Đan</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Huyền</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hồng Nhung</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Thanh Thảo</t>
+  </si>
+  <si>
+    <t>Lý Văn Quang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Quế Anh</t>
+  </si>
+  <si>
+    <t>Phạm Văn Nam</t>
+  </si>
+  <si>
+    <t>Bùi Thị Thảo</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hoài An</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Ánh</t>
+  </si>
+  <si>
+    <t>Trần Văn Thiên</t>
+  </si>
+  <si>
+    <t>Lê Thị Mỹ Linh</t>
+  </si>
+  <si>
+    <t>Lê Thị Thu</t>
+  </si>
+  <si>
+    <t>Ngô Thị Duyên</t>
+  </si>
+  <si>
+    <t>Vũ Văn Hậu</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hà</t>
+  </si>
+  <si>
+    <t>Lý Văn Yếu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Đào</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đạt</t>
+  </si>
+  <si>
+    <t>Bùi Thị Thanh</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Tuyết</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Xuân Trang</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mai</t>
+  </si>
+  <si>
+    <t>Phạm Văn Dũng</t>
+  </si>
+  <si>
+    <t>Trần Văn Quân</t>
+  </si>
+  <si>
+    <t>Bùi Thị Ly</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Lan</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Thanh Hà</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Yến Nhi</t>
+  </si>
+  <si>
+    <t>Lê Thị Kiều Anh</t>
+  </si>
+  <si>
+    <t>Ngô Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Ngô Thị Trang</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
   </si>
 </sst>
 </file>
@@ -395,15 +932,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -411,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -431,19 +969,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C2">
-        <v>22166101</v>
+        <v>21166203</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -451,19 +989,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C3">
-        <v>22166102</v>
+        <v>21166204</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -471,19 +1009,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>22166103</v>
+        <v>21166105</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -491,19 +1029,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>22166104</v>
+        <v>21166107</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>8.6</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -511,19 +1049,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C6">
-        <v>22166105</v>
+        <v>21166206</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -531,19 +1069,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>22166106</v>
+        <v>21166111</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -551,19 +1089,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>22166107</v>
+        <v>21166116</v>
       </c>
       <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>3.8</v>
+      </c>
+      <c r="F8">
         <v>7</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -571,19 +1109,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>22166108</v>
+        <v>21166117</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>9.4</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -591,19 +1129,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="C10">
-        <v>22166109</v>
+        <v>22166106</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -611,19 +1149,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C11">
-        <v>22166110</v>
+        <v>21166212</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -631,19 +1169,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C12">
-        <v>21166101</v>
+        <v>21166216</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -651,19 +1189,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="C13">
-        <v>21166102</v>
+        <v>22166216</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -671,19 +1209,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C14">
-        <v>21166103</v>
+        <v>21166218</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -691,19 +1229,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C15">
-        <v>21166104</v>
+        <v>21166221</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -711,19 +1249,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="C16">
-        <v>21166105</v>
+        <v>22166217</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>9.1</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -731,19 +1269,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="C17">
-        <v>21166106</v>
+        <v>22166118</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -751,19 +1289,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C18">
-        <v>21166107</v>
+        <v>21166229</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -771,19 +1309,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="C19">
-        <v>21166108</v>
+        <v>20166226</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -791,19 +1329,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C20">
-        <v>21166109</v>
+        <v>21166232</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
         <v>7</v>
-      </c>
-      <c r="F20">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -811,22 +1349,3848 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21">
+        <v>20166228</v>
+      </c>
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21">
+        <v>9.1</v>
+      </c>
+      <c r="F21">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22">
+        <v>20166135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22">
+        <v>7.7</v>
+      </c>
+      <c r="F22">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23">
+        <v>21166237</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23">
+        <v>9.9</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24">
+        <v>21166236</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24">
+        <v>8.6</v>
+      </c>
+      <c r="F24">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25">
+        <v>20166231</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25">
+        <v>6.5</v>
+      </c>
+      <c r="F25">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>21166126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>7.5</v>
+      </c>
+      <c r="F26">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27">
+        <v>21166242</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27">
+        <v>9.9</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28">
+        <v>21166246</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28">
+        <v>6.2</v>
+      </c>
+      <c r="F28">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29">
+        <v>20166240</v>
+      </c>
+      <c r="D29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30">
+        <v>21166252</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <v>4.8</v>
+      </c>
+      <c r="F30">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>21166131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F31">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32">
+        <v>21166254</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F32">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33">
+        <v>21166257</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33">
+        <v>7.7</v>
+      </c>
+      <c r="F33">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34">
+        <v>21166135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>8.5</v>
+      </c>
+      <c r="F34">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35">
+        <v>22166143</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>7.7</v>
+      </c>
+      <c r="F35">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>21166145</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>7.7</v>
+      </c>
+      <c r="F36">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37">
+        <v>20166154</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37">
+        <v>6.5</v>
+      </c>
+      <c r="F37">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38">
+        <v>22166251</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39">
+        <v>22166253</v>
+      </c>
+      <c r="D39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39">
+        <v>8.5</v>
+      </c>
+      <c r="F39">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40">
+        <v>22166153</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>4.8</v>
+      </c>
+      <c r="F40">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41">
+        <v>21166259</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41">
+        <v>6.8</v>
+      </c>
+      <c r="F41">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42">
+        <v>21166260</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43">
+        <v>21166152</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F43">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44">
+        <v>22166156</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>8.5</v>
+      </c>
+      <c r="F44">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>21166154</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>9.5</v>
+      </c>
+      <c r="F45">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46">
+        <v>21166158</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>7.2</v>
+      </c>
+      <c r="F46">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47">
+        <v>21166159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>9.4</v>
+      </c>
+      <c r="F47">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48">
+        <v>21166162</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>3.2</v>
+      </c>
+      <c r="F48">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49">
+        <v>21166165</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50">
+        <v>21166263</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51">
+        <v>21166264</v>
+      </c>
+      <c r="D51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51">
+        <v>4.2</v>
+      </c>
+      <c r="F51">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52">
+        <v>21166265</v>
+      </c>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52">
+        <v>5.7</v>
+      </c>
+      <c r="F52">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53">
+        <v>21166166</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>7.8</v>
+      </c>
+      <c r="F53">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54">
+        <v>22166166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F54">
+        <v>6.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:D54">
+    <sortCondition ref="B2:B54"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>21166102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>7.8</v>
+      </c>
+      <c r="F2">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>21166103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>6.9</v>
+      </c>
+      <c r="F3">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>21166104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>3.2</v>
+      </c>
+      <c r="F4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>21166205</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>6.6</v>
+      </c>
+      <c r="F5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6">
+        <v>22166205</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6">
+        <v>9.6</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7">
+        <v>20166105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7">
+        <v>9.5</v>
+      </c>
+      <c r="F7">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>21166108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>7.2</v>
+      </c>
+      <c r="F8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>21166208</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <v>3.7</v>
+      </c>
+      <c r="F9">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>21166113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>3.7</v>
+      </c>
+      <c r="F10">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>21166114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>5.2</v>
+      </c>
+      <c r="F11">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>21166115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>6.7</v>
+      </c>
+      <c r="F12">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13">
+        <v>22166107</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F13">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <v>21166213</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F14">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15">
+        <v>22166112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>6.9</v>
+      </c>
+      <c r="F15">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>21166119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>4.2</v>
+      </c>
+      <c r="F16">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17">
+        <v>21166215</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17">
+        <v>6.7</v>
+      </c>
+      <c r="F17">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>21166219</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18">
+        <v>7.2</v>
+      </c>
+      <c r="F18">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>21166121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>3.6</v>
+      </c>
+      <c r="F19">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20">
+        <v>21166222</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
       <c r="C21">
+        <v>21166227</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21">
+        <v>3.7</v>
+      </c>
+      <c r="F21">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>20166129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22">
+        <v>4.2</v>
+      </c>
+      <c r="F22">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23">
+        <v>20166223</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23">
+        <v>4.7</v>
+      </c>
+      <c r="F23">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24">
+        <v>22166120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>5.7</v>
+      </c>
+      <c r="F24">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>21166231</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25">
+        <v>8.1</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26">
+        <v>20166227</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26">
+        <v>7.8</v>
+      </c>
+      <c r="F26">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27">
+        <v>21166238</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27">
+        <v>6.7</v>
+      </c>
+      <c r="F27">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28">
+        <v>21166241</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28">
+        <v>6.7</v>
+      </c>
+      <c r="F28">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29">
+        <v>20166140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29">
+        <v>8.5</v>
+      </c>
+      <c r="F29">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30">
+        <v>21166250</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <v>5.8</v>
+      </c>
+      <c r="F30">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31">
+        <v>21166251</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>21166128</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33">
+        <v>22166224</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33">
+        <v>8.9</v>
+      </c>
+      <c r="F33">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34">
+        <v>22166136</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>3.8</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35">
+        <v>22166138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F35">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36">
+        <v>22166230</v>
+      </c>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>21166134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>8.4</v>
+      </c>
+      <c r="F37">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38">
+        <v>22166140</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39">
+        <v>21166255</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39">
+        <v>6.8</v>
+      </c>
+      <c r="F39">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>21166137</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>7.8</v>
+      </c>
+      <c r="F40">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>21166138</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>4.8</v>
+      </c>
+      <c r="F41">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>21166142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F42">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>21166143</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F43">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44">
+        <v>22166152</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>7.7</v>
+      </c>
+      <c r="F44">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>21166148</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>21166149</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F46">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47">
+        <v>20166157</v>
+      </c>
+      <c r="D47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47">
+        <v>4.7</v>
+      </c>
+      <c r="F47">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48">
+        <v>21166261</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48">
+        <v>6.7</v>
+      </c>
+      <c r="F48">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>21166155</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>6.6</v>
+      </c>
+      <c r="F49">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50">
+        <v>22166159</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>5.7</v>
+      </c>
+      <c r="F50">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51">
+        <v>22166161</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>4.7</v>
+      </c>
+      <c r="F51">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52">
+        <v>22166163</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>3.7</v>
+      </c>
+      <c r="F52">
+        <v>7.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:D52">
+    <sortCondition ref="B2:B52"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2">
+        <v>22166201</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2">
+        <v>8.6</v>
+      </c>
+      <c r="F2">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>21166201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <v>5.3</v>
+      </c>
+      <c r="F3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>21166202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>21166106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>3.3</v>
+      </c>
+      <c r="F5">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6">
+        <v>22166204</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7">
+        <v>22166206</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7">
+        <v>9.1</v>
+      </c>
+      <c r="F7">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8">
+        <v>22166208</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8">
+        <v>7.7</v>
+      </c>
+      <c r="F8">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9">
+        <v>22166103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>21166112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>4.3</v>
+      </c>
+      <c r="F10">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11">
+        <v>20166112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F11">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>21166118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F12">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>22166213</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13">
+        <v>9.4</v>
+      </c>
+      <c r="F13">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>21166214</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>6.2</v>
+      </c>
+      <c r="F14">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>21166120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>5.8</v>
+      </c>
+      <c r="F15">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16">
+        <v>21166217</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16">
+        <v>6.5</v>
+      </c>
+      <c r="F16">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <v>20166214</v>
+      </c>
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17">
+        <v>3.8</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18">
+        <v>21166225</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18">
+        <v>6.2</v>
+      </c>
+      <c r="F18">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>21166123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>7.5</v>
+      </c>
+      <c r="F19">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20">
+        <v>21166228</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20">
+        <v>9.1</v>
+      </c>
+      <c r="F20">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21">
+        <v>20166130</v>
+      </c>
+      <c r="D21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>21166125</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>6.2</v>
+      </c>
+      <c r="F22">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23">
+        <v>21166230</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23">
+        <v>6.5</v>
+      </c>
+      <c r="F23">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24">
+        <v>21166233</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24">
+        <v>6.5</v>
+      </c>
+      <c r="F24">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25">
+        <v>20166229</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25">
+        <v>5.3</v>
+      </c>
+      <c r="F25">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26">
+        <v>21166239</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26">
+        <v>6.8</v>
+      </c>
+      <c r="F26">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27">
+        <v>21166240</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28">
+        <v>21166243</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29">
+        <v>20166141</v>
+      </c>
+      <c r="D29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29">
+        <v>9.1</v>
+      </c>
+      <c r="F29">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30">
+        <v>21166244</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <v>9.1</v>
+      </c>
+      <c r="F30">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31">
+        <v>21166247</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31">
+        <v>7.7</v>
+      </c>
+      <c r="F31">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32">
+        <v>21166248</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33">
+        <v>21166249</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33">
+        <v>7.2</v>
+      </c>
+      <c r="F33">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34">
+        <v>20166144</v>
+      </c>
+      <c r="D34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34">
+        <v>8.5</v>
+      </c>
+      <c r="F34">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35">
+        <v>20166244</v>
+      </c>
+      <c r="D35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35">
+        <v>8.5</v>
+      </c>
+      <c r="F35">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36">
+        <v>21166253</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36">
+        <v>5.3</v>
+      </c>
+      <c r="F36">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>21166129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>6.8</v>
+      </c>
+      <c r="F37">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38">
+        <v>22166227</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39">
+        <v>20166147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>21166130</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>7.7</v>
+      </c>
+      <c r="F40">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41">
+        <v>22166228</v>
+      </c>
+      <c r="D41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41">
+        <v>7.7</v>
+      </c>
+      <c r="F41">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42">
+        <v>21166256</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43">
+        <v>20166151</v>
+      </c>
+      <c r="D43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43">
+        <v>9.9</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>21166140</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>5.3</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45">
+        <v>22166146</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>8.5</v>
+      </c>
+      <c r="F45">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>21166144</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>5.8</v>
+      </c>
+      <c r="F46">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47">
+        <v>21166146</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>3.8</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>21166147</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49">
+        <v>20166155</v>
+      </c>
+      <c r="D49" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50">
+        <v>22166257</v>
+      </c>
+      <c r="D50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F50">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51">
+        <v>20166158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51">
+        <v>7.7</v>
+      </c>
+      <c r="F51">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52">
+        <v>21166156</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>4.8</v>
+      </c>
+      <c r="F52">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53">
+        <v>21166262</v>
+      </c>
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53">
+        <v>7.2</v>
+      </c>
+      <c r="F53">
+        <v>9.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:D53">
+    <sortCondition ref="B2:B53"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>21166101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>9.6</v>
+      </c>
+      <c r="F2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3">
+        <v>20166101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3">
+        <v>8.5</v>
+      </c>
+      <c r="F3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>21166109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>7.6</v>
+      </c>
+      <c r="F4">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
         <v>21166110</v>
       </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F5">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>21166207</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>21166209</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>21166210</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>8.4</v>
+      </c>
+      <c r="F8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9">
+        <v>20166113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9">
+        <v>6.6</v>
+      </c>
+      <c r="F9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>21166211</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10">
+        <v>6.6</v>
+      </c>
+      <c r="F10">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11">
+        <v>22166114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>9.6</v>
+      </c>
+      <c r="F11">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12">
+        <v>22166115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>9.6</v>
+      </c>
+      <c r="F12">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>21166220</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13">
+        <v>8.5</v>
+      </c>
+      <c r="F13">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14">
+        <v>21166223</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>9.5</v>
+      </c>
+      <c r="F14">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15">
+        <v>21166224</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15">
+        <v>6.2</v>
+      </c>
+      <c r="F15">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>21166226</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F16">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17">
+        <v>22166218</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17">
+        <v>3.1</v>
+      </c>
+      <c r="F17">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>21166122</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>6.5</v>
+      </c>
+      <c r="F18">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>21166124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>7.1</v>
+      </c>
+      <c r="F19">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20">
+        <v>22166122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>8.5</v>
+      </c>
+      <c r="F20">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21">
+        <v>21166234</v>
+      </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E21">
+        <v>9.5</v>
+      </c>
+      <c r="F21">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22">
+        <v>21166235</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22">
+        <v>9.5</v>
+      </c>
+      <c r="F22">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23">
+        <v>20166230</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F23">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>21166245</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24">
+        <v>5.6</v>
+      </c>
+      <c r="F24">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>21166127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>6.2</v>
+      </c>
+      <c r="F25">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26">
+        <v>20166239</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F26">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27">
+        <v>22166223</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27">
+        <v>8.4</v>
+      </c>
+      <c r="F27">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28">
+        <v>22166131</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>6.5</v>
+      </c>
+      <c r="F28">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>21166132</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>6.4</v>
+      </c>
+      <c r="F29">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30">
+        <v>20166148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30">
+        <v>6.3</v>
+      </c>
+      <c r="F30">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>21166133</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6.6</v>
+      </c>
+      <c r="F31">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32">
+        <v>22166234</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32">
+        <v>8.5</v>
+      </c>
+      <c r="F32">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>21166136</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>9.5</v>
+      </c>
+      <c r="F33">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>21166139</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F34">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35">
+        <v>21166258</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35">
+        <v>7.6</v>
+      </c>
+      <c r="F35">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>21166141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>8.1</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37">
+        <v>22166241</v>
+      </c>
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37">
+        <v>8.1</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38">
+        <v>22166242</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39">
+        <v>22166250</v>
+      </c>
+      <c r="D39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F39">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40">
+        <v>22166154</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>3.1</v>
+      </c>
+      <c r="F40">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>21166150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>6.5</v>
+      </c>
+      <c r="F41">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>21166151</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>7.1</v>
+      </c>
+      <c r="F42">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43">
+        <v>21166153</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>5.6</v>
+      </c>
+      <c r="F43">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44">
+        <v>21166157</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F44">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45">
+        <v>21166160</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F45">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46">
+        <v>21166161</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>6</v>
+      <c r="F46">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47">
+        <v>21166163</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>4.5</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48">
+        <v>21166164</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>4.7</v>
+      </c>
+      <c r="F48">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49">
+        <v>21166266</v>
+      </c>
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49">
+        <v>9.1</v>
+      </c>
+      <c r="F49">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50">
+        <v>20166165</v>
+      </c>
+      <c r="D50" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50">
+        <v>7.7</v>
+      </c>
+      <c r="F50">
+        <v>5.3</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:D50">
+    <sortCondition ref="B2:B50"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/score/GIS_DC/GIS_DC.xlsx
+++ b/score/GIS_DC/GIS_DC.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON\Tieu_luan\score\GIS_DC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\python\TL\TLGiang\score\GIS_DC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885375F4-DF24-426A-9A81-577E510273CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="720" windowWidth="14800" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="DH22HM01" sheetId="1" r:id="rId1"/>
-    <sheet name="DH21HM01" sheetId="2" r:id="rId2"/>
+    <sheet name="gi01A" sheetId="1" r:id="rId1"/>
+    <sheet name="gi01B" sheetId="3" r:id="rId2"/>
+    <sheet name="gi02A" sheetId="2" r:id="rId3"/>
+    <sheet name="gi02B" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">gi01B!$B$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="195">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Tên</t>
-  </si>
-  <si>
     <t>MSSV</t>
   </si>
   <si>
@@ -46,46 +47,580 @@
     <t>Cuối kỳ</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
     <t>DH22HM01</t>
   </si>
   <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn C</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn D</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn E</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn F</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn G</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn H</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn I</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn K</t>
-  </si>
-  <si>
     <t>DH21HM01</t>
+  </si>
+  <si>
+    <t>Bùi Thị Ái</t>
+  </si>
+  <si>
+    <t>Trần Văn Tuấn An</t>
+  </si>
+  <si>
+    <t>Trần Văn Ân</t>
+  </si>
+  <si>
+    <t>Bùi Thị Quỳnh Anh</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Phương Anh</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Trâm Anh</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Mai Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hà Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Xuân Anh</t>
+  </si>
+  <si>
+    <t>Trần Văn Tuấn Anh</t>
+  </si>
+  <si>
+    <t>Bùi Thị Đan</t>
+  </si>
+  <si>
+    <t>Lê Thị Đan</t>
+  </si>
+  <si>
+    <t>Mai Văn Đăng</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đăng</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Đào</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Đào</t>
+  </si>
+  <si>
+    <t>Vũ Văn Đình</t>
+  </si>
+  <si>
+    <t>Lý Văn Dương</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hương Giang</t>
+  </si>
+  <si>
+    <t>Lý Văn Minh Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Hiền</t>
+  </si>
+  <si>
+    <t>Trần Văn Hiền</t>
+  </si>
+  <si>
+    <t>Mai Văn Hòa</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hòa</t>
+  </si>
+  <si>
+    <t>Trần Văn Xuân Hùng</t>
+  </si>
+  <si>
+    <t>Vũ Văn Hưng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Khánh</t>
+  </si>
+  <si>
+    <t>Trần Văn Khôi</t>
+  </si>
+  <si>
+    <t>Lê Thị Kiều Loan</t>
+  </si>
+  <si>
+    <t>Trần Văn Thành Long</t>
+  </si>
+  <si>
+    <t>Phạm Văn Lực</t>
+  </si>
+  <si>
+    <t>Lý Văn Đức Minh</t>
+  </si>
+  <si>
+    <t>Bùi Thị Trà My</t>
+  </si>
+  <si>
+    <t>Trần Văn Nguyên</t>
+  </si>
+  <si>
+    <t>Ngô Thị Nguyệt</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Yến Nhi</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Thảo Nhi</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Uyển Nhi</t>
+  </si>
+  <si>
+    <t>Mai Văn Phú</t>
+  </si>
+  <si>
+    <t>Vũ Văn Phước</t>
+  </si>
+  <si>
+    <t>Trần Văn Quốc</t>
+  </si>
+  <si>
+    <t>Lê Thị Sáng</t>
+  </si>
+  <si>
+    <t>Phạm Văn Sỹ</t>
+  </si>
+  <si>
+    <t>Phạm Văn Tài</t>
+  </si>
+  <si>
+    <t>Lý Văn Thông</t>
+  </si>
+  <si>
+    <t>Ngô Thị Thu</t>
+  </si>
+  <si>
+    <t>Mai Văn Thủy</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Tiên</t>
+  </si>
+  <si>
+    <t>Mai Văn Tiến</t>
+  </si>
+  <si>
+    <t>Phạm Văn Tín</t>
+  </si>
+  <si>
+    <t>Ngô Thị Thùy Trang</t>
+  </si>
+  <si>
+    <t>Vũ Văn Trí</t>
+  </si>
+  <si>
+    <t>Lê Thị Tú</t>
+  </si>
+  <si>
+    <t>Lê Thị Tuệ</t>
+  </si>
+  <si>
+    <t>Vũ Văn Tùng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Tuyết</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Uyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Vân</t>
+  </si>
+  <si>
+    <t>Lý Văn Việt</t>
+  </si>
+  <si>
+    <t>Lý Văn Vinh</t>
+  </si>
+  <si>
+    <t>Trần Văn Vĩnh</t>
+  </si>
+  <si>
+    <t>Ngô Thị Xuân</t>
+  </si>
+  <si>
+    <t>Mai Văn Xuyên</t>
+  </si>
+  <si>
+    <t>Vũ Văn Yên</t>
+  </si>
+  <si>
+    <t>Ngô Thị Yến</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hoài An</t>
+  </si>
+  <si>
+    <t>DH21HM02</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hoài An</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị An</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hải Anh</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đạt Anh</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đức Anh</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Trần Văn Bảo</t>
+  </si>
+  <si>
+    <t>Đặng Văn Đức</t>
+  </si>
+  <si>
+    <t>Trần Văn Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Dung</t>
+  </si>
+  <si>
+    <t>Ngô Thị Dương</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hương Giang</t>
+  </si>
+  <si>
+    <t>Lê Thị Hà</t>
+  </si>
+  <si>
+    <t>Lý Văn Hải</t>
+  </si>
+  <si>
+    <t>Mai Văn Hải</t>
+  </si>
+  <si>
+    <t>Trần Văn Hải</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hạnh</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hạnh</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hạnh</t>
+  </si>
+  <si>
+    <t>Mai Văn Hào</t>
+  </si>
+  <si>
+    <t>Trần Văn Hiệp</t>
+  </si>
+  <si>
+    <t>Trần Văn Hiếu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoài</t>
+  </si>
+  <si>
+    <t>Trần Văn Hoàng</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hồng</t>
+  </si>
+  <si>
+    <t>Trần Văn Hồng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Huệ</t>
+  </si>
+  <si>
+    <t>Lý Văn Hùng</t>
+  </si>
+  <si>
+    <t>Mai Văn Hùng</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hùng</t>
+  </si>
+  <si>
+    <t>Trần Văn Hùng</t>
+  </si>
+  <si>
+    <t>Vũ Văn Hùng</t>
+  </si>
+  <si>
+    <t>Trần Văn Hưng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hương</t>
+  </si>
+  <si>
+    <t>Lê Thị Hương</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hữu</t>
+  </si>
+  <si>
+    <t>Phạm Văn Huy</t>
+  </si>
+  <si>
+    <t>Vũ Văn Huy</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Huyền</t>
+  </si>
+  <si>
+    <t>Lý Văn Huyền</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Huyền</t>
+  </si>
+  <si>
+    <t>Lê Thị Hà My</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hồng Ngọc</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Diệu Ngọc</t>
+  </si>
+  <si>
+    <t>Lê Thị Hồng Ngọc</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Nhung</t>
+  </si>
+  <si>
+    <t>Bùi Thị Huyền Trang</t>
+  </si>
+  <si>
+    <t>Lê Thị Đoan Trang</t>
+  </si>
+  <si>
+    <t>Ngô Thị Huyền Trang</t>
+  </si>
+  <si>
+    <t>Lê Thị Cát Tường</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hải Yến</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hải Yến</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hoàng Yến</t>
+  </si>
+  <si>
+    <t>DH22HM02</t>
+  </si>
+  <si>
+    <t>Lý Văn Khoa</t>
+  </si>
+  <si>
+    <t>Trần Văn Khánh</t>
+  </si>
+  <si>
+    <t>Đặng Văn Quân</t>
+  </si>
+  <si>
+    <t>Bùi Thị Xuân</t>
+  </si>
+  <si>
+    <t>Phạm Văn Yên</t>
+  </si>
+  <si>
+    <t>Lê Thị Quỳnh Anh</t>
+  </si>
+  <si>
+    <t>Trần Văn Lâm</t>
+  </si>
+  <si>
+    <t>Lý Văn Đức Anh</t>
+  </si>
+  <si>
+    <t>Lý Văn Long</t>
+  </si>
+  <si>
+    <t>Phạm Văn Thuận</t>
+  </si>
+  <si>
+    <t>Trần Văn Hào</t>
+  </si>
+  <si>
+    <t>DH20HM01</t>
+  </si>
+  <si>
+    <t>DH20HM02</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hoa</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Đặng</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Lê Thị Huyền Trang</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hoài Thương</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hương Trà</t>
+  </si>
+  <si>
+    <t>Lê Thị Mai</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hồng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoàng Yến</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hưng</t>
+  </si>
+  <si>
+    <t>Trần Văn Linh</t>
+  </si>
+  <si>
+    <t>Trần Văn Thành</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hồng</t>
+  </si>
+  <si>
+    <t>Mai Văn Đức Anh</t>
+  </si>
+  <si>
+    <t>Mai Văn Hưng</t>
+  </si>
+  <si>
+    <t>Mai Văn Huy</t>
+  </si>
+  <si>
+    <t>Mai Văn Huyền</t>
+  </si>
+  <si>
+    <t>Ngô Thị Đan</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Huyền</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hồng Nhung</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Thanh Thảo</t>
+  </si>
+  <si>
+    <t>Lý Văn Quang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Quế Anh</t>
+  </si>
+  <si>
+    <t>Phạm Văn Nam</t>
+  </si>
+  <si>
+    <t>Bùi Thị Thảo</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hoài An</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Ánh</t>
+  </si>
+  <si>
+    <t>Trần Văn Thiên</t>
+  </si>
+  <si>
+    <t>Lê Thị Mỹ Linh</t>
+  </si>
+  <si>
+    <t>Lê Thị Thu</t>
+  </si>
+  <si>
+    <t>Ngô Thị Duyên</t>
+  </si>
+  <si>
+    <t>Vũ Văn Hậu</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hà</t>
+  </si>
+  <si>
+    <t>Lý Văn Yếu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Đào</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đạt</t>
+  </si>
+  <si>
+    <t>Bùi Thị Thanh</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Tuyết</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Xuân Trang</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mai</t>
+  </si>
+  <si>
+    <t>Phạm Văn Dũng</t>
+  </si>
+  <si>
+    <t>Trần Văn Quân</t>
+  </si>
+  <si>
+    <t>Bùi Thị Ly</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Lan</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Thanh Hà</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Yến Nhi</t>
+  </si>
+  <si>
+    <t>Lê Thị Kiều Anh</t>
+  </si>
+  <si>
+    <t>Ngô Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Ngô Thị Trang</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,280 +931,1143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C2">
-        <v>22166101</v>
+        <v>21166203</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C3">
-        <v>22166102</v>
+        <v>21166204</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>22166103</v>
+        <v>21166105</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>22166104</v>
+        <v>21166107</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>8.6</v>
       </c>
       <c r="F5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C6">
-        <v>22166105</v>
+        <v>21166206</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>22166106</v>
+        <v>21166111</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>22166107</v>
+        <v>21166116</v>
       </c>
       <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>3.8</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>22166108</v>
+        <v>21166117</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>9.4</v>
       </c>
       <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="C10">
-        <v>22166109</v>
+        <v>22166106</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="F10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>21166212</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11">
+        <v>7.2</v>
+      </c>
+      <c r="F11">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12">
+        <v>21166216</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12">
+        <v>5.3</v>
+      </c>
+      <c r="F12">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13">
+        <v>22166216</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13">
+        <v>5.3</v>
+      </c>
+      <c r="F13">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <v>21166218</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>7.5</v>
+      </c>
+      <c r="F14">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15">
+        <v>21166221</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16">
+        <v>22166217</v>
+      </c>
+      <c r="D16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16">
+        <v>9.1</v>
+      </c>
+      <c r="F16">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C11">
-        <v>22166110</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17">
+        <v>22166118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F17">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18">
+        <v>21166229</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18">
+        <v>8.6</v>
+      </c>
+      <c r="F18">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19">
+        <v>20166226</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19">
+        <v>8.5</v>
+      </c>
+      <c r="F19">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20">
+        <v>21166232</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
         <v>7</v>
       </c>
-      <c r="E11">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21">
+        <v>20166228</v>
+      </c>
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21">
+        <v>9.1</v>
+      </c>
+      <c r="F21">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22">
+        <v>20166135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22">
+        <v>7.7</v>
+      </c>
+      <c r="F22">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23">
+        <v>21166237</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23">
+        <v>9.9</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24">
+        <v>21166236</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24">
+        <v>8.6</v>
+      </c>
+      <c r="F24">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25">
+        <v>20166231</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25">
+        <v>6.5</v>
+      </c>
+      <c r="F25">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>21166126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>7.5</v>
+      </c>
+      <c r="F26">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27">
+        <v>21166242</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27">
+        <v>9.9</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28">
+        <v>21166246</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28">
+        <v>6.2</v>
+      </c>
+      <c r="F28">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29">
+        <v>20166240</v>
+      </c>
+      <c r="D29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30">
+        <v>21166252</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <v>4.8</v>
+      </c>
+      <c r="F30">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>21166131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F31">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32">
+        <v>21166254</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F32">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33">
+        <v>21166257</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33">
+        <v>7.7</v>
+      </c>
+      <c r="F33">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34">
+        <v>21166135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>8.5</v>
+      </c>
+      <c r="F34">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35">
+        <v>22166143</v>
+      </c>
+      <c r="D35" t="s">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="E35">
+        <v>7.7</v>
+      </c>
+      <c r="F35">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>21166145</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>7.7</v>
+      </c>
+      <c r="F36">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37">
+        <v>20166154</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37">
+        <v>6.5</v>
+      </c>
+      <c r="F37">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38">
+        <v>22166251</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39">
+        <v>22166253</v>
+      </c>
+      <c r="D39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39">
+        <v>8.5</v>
+      </c>
+      <c r="F39">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40">
+        <v>22166153</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>4.8</v>
+      </c>
+      <c r="F40">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41">
+        <v>21166259</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41">
+        <v>6.8</v>
+      </c>
+      <c r="F41">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42">
+        <v>21166260</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
         <v>7</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43">
+        <v>21166152</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F43">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44">
+        <v>22166156</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>8.5</v>
+      </c>
+      <c r="F44">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>21166154</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>9.5</v>
+      </c>
+      <c r="F45">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46">
+        <v>21166158</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>7.2</v>
+      </c>
+      <c r="F46">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47">
+        <v>21166159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>9.4</v>
+      </c>
+      <c r="F47">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48">
+        <v>21166162</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>3.2</v>
+      </c>
+      <c r="F48">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49">
+        <v>21166165</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50">
+        <v>21166263</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51">
+        <v>21166264</v>
+      </c>
+      <c r="D51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51">
+        <v>4.2</v>
+      </c>
+      <c r="F51">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52">
+        <v>21166265</v>
+      </c>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52">
+        <v>5.7</v>
+      </c>
+      <c r="F52">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53">
+        <v>21166166</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>7.8</v>
+      </c>
+      <c r="F53">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54">
+        <v>22166166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F54">
+        <v>6.4</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="B2:D54">
+    <sortCondition ref="B2:B54"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981767B7-C7FC-422A-BC5C-E8E90E7B6941}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1">
-        <v>21166101</v>
-      </c>
       <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -678,18 +2076,18 @@
         <v>21166102</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>7.8</v>
       </c>
       <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -698,18 +2096,18 @@
         <v>21166103</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="F3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -718,78 +2116,78 @@
         <v>21166104</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="F4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>21166205</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>6.6</v>
+      </c>
+      <c r="F5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>21166105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6">
+        <v>22166205</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6">
+        <v>9.6</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>21166106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7">
+        <v>20166105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7">
+        <v>9.5</v>
+      </c>
+      <c r="F7">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>21166107</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -798,56 +2196,3001 @@
         <v>21166108</v>
       </c>
       <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>7.2</v>
+      </c>
+      <c r="F8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>21166208</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <v>3.7</v>
+      </c>
+      <c r="F9">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>21166113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>3.7</v>
+      </c>
+      <c r="F10">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>21166114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>5.2</v>
+      </c>
+      <c r="F11">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>21166115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>6.7</v>
+      </c>
+      <c r="F12">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13">
+        <v>22166107</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F13">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <v>21166213</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F14">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15">
+        <v>22166112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>6.9</v>
+      </c>
+      <c r="F15">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>21166119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>4.2</v>
+      </c>
+      <c r="F16">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17">
+        <v>21166215</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17">
+        <v>6.7</v>
+      </c>
+      <c r="F17">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>21166219</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18">
+        <v>7.2</v>
+      </c>
+      <c r="F18">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>21166121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>3.6</v>
+      </c>
+      <c r="F19">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20">
+        <v>21166222</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>21166227</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21">
+        <v>3.7</v>
+      </c>
+      <c r="F21">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>20166129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22">
+        <v>4.2</v>
+      </c>
+      <c r="F22">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23">
+        <v>20166223</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23">
+        <v>4.7</v>
+      </c>
+      <c r="F23">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24">
+        <v>22166120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>5.7</v>
+      </c>
+      <c r="F24">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>21166231</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25">
+        <v>8.1</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26">
+        <v>20166227</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26">
+        <v>7.8</v>
+      </c>
+      <c r="F26">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27">
+        <v>21166238</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27">
+        <v>6.7</v>
+      </c>
+      <c r="F27">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28">
+        <v>21166241</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28">
+        <v>6.7</v>
+      </c>
+      <c r="F28">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29">
+        <v>20166140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29">
+        <v>8.5</v>
+      </c>
+      <c r="F29">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30">
+        <v>21166250</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <v>5.8</v>
+      </c>
+      <c r="F30">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31">
+        <v>21166251</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>21166128</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33">
+        <v>22166224</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33">
+        <v>8.9</v>
+      </c>
+      <c r="F33">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34">
+        <v>22166136</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>3.8</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35">
+        <v>22166138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F35">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36">
+        <v>22166230</v>
+      </c>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>21166134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>8.4</v>
+      </c>
+      <c r="F37">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38">
+        <v>22166140</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39">
+        <v>21166255</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39">
+        <v>6.8</v>
+      </c>
+      <c r="F39">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>21166137</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>7.8</v>
+      </c>
+      <c r="F40">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>21166138</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>4.8</v>
+      </c>
+      <c r="F41">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>21166142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F42">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>21166143</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F43">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44">
+        <v>22166152</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>7.7</v>
+      </c>
+      <c r="F44">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>21166148</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>21166149</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F46">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47">
+        <v>20166157</v>
+      </c>
+      <c r="D47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47">
+        <v>4.7</v>
+      </c>
+      <c r="F47">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48">
+        <v>21166261</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48">
+        <v>6.7</v>
+      </c>
+      <c r="F48">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>21166155</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>6.6</v>
+      </c>
+      <c r="F49">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50">
+        <v>22166159</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>5.7</v>
+      </c>
+      <c r="F50">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51">
+        <v>22166161</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>4.7</v>
+      </c>
+      <c r="F51">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52">
+        <v>22166163</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>3.7</v>
+      </c>
+      <c r="F52">
+        <v>7.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:D52">
+    <sortCondition ref="B2:B52"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2">
+        <v>22166201</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2">
+        <v>8.6</v>
+      </c>
+      <c r="F2">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>21166201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <v>5.3</v>
+      </c>
+      <c r="F3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>21166202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>21166106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>3.3</v>
+      </c>
+      <c r="F5">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6">
+        <v>22166204</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7">
+        <v>22166206</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7">
+        <v>9.1</v>
+      </c>
+      <c r="F7">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8">
+        <v>22166208</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
       <c r="E8">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="F8">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9">
+        <v>22166103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>21166112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>4.3</v>
+      </c>
+      <c r="F10">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11">
+        <v>20166112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F11">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>21166118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F12">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>22166213</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13">
+        <v>9.4</v>
+      </c>
+      <c r="F13">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>21166214</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>6.2</v>
+      </c>
+      <c r="F14">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>21166120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>5.8</v>
+      </c>
+      <c r="F15">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16">
+        <v>21166217</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16">
+        <v>6.5</v>
+      </c>
+      <c r="F16">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <v>20166214</v>
+      </c>
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17">
+        <v>3.8</v>
+      </c>
+      <c r="F17">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18">
+        <v>21166225</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18">
+        <v>6.2</v>
+      </c>
+      <c r="F18">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>21166123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>7.5</v>
+      </c>
+      <c r="F19">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20">
+        <v>21166228</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20">
+        <v>9.1</v>
+      </c>
+      <c r="F20">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21">
+        <v>20166130</v>
+      </c>
+      <c r="D21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>21166125</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>6.2</v>
+      </c>
+      <c r="F22">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23">
+        <v>21166230</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23">
+        <v>6.5</v>
+      </c>
+      <c r="F23">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24">
+        <v>21166233</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24">
+        <v>6.5</v>
+      </c>
+      <c r="F24">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25">
+        <v>20166229</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25">
+        <v>5.3</v>
+      </c>
+      <c r="F25">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26">
+        <v>21166239</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26">
+        <v>6.8</v>
+      </c>
+      <c r="F26">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27">
+        <v>21166240</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28">
+        <v>21166243</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29">
+        <v>20166141</v>
+      </c>
+      <c r="D29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29">
+        <v>9.1</v>
+      </c>
+      <c r="F29">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30">
+        <v>21166244</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <v>9.1</v>
+      </c>
+      <c r="F30">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31">
+        <v>21166247</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31">
+        <v>7.7</v>
+      </c>
+      <c r="F31">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32">
+        <v>21166248</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33">
+        <v>21166249</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33">
+        <v>7.2</v>
+      </c>
+      <c r="F33">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34">
+        <v>20166144</v>
+      </c>
+      <c r="D34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34">
+        <v>8.5</v>
+      </c>
+      <c r="F34">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35">
+        <v>20166244</v>
+      </c>
+      <c r="D35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35">
+        <v>8.5</v>
+      </c>
+      <c r="F35">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36">
+        <v>21166253</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36">
+        <v>5.3</v>
+      </c>
+      <c r="F36">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>21166129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>6.8</v>
+      </c>
+      <c r="F37">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38">
+        <v>22166227</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39">
+        <v>20166147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>21166130</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>7.7</v>
+      </c>
+      <c r="F40">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41">
+        <v>22166228</v>
+      </c>
+      <c r="D41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41">
+        <v>7.7</v>
+      </c>
+      <c r="F41">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42">
+        <v>21166256</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43">
+        <v>20166151</v>
+      </c>
+      <c r="D43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43">
+        <v>9.9</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>21166140</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>5.3</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45">
+        <v>22166146</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>8.5</v>
+      </c>
+      <c r="F45">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>21166144</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>5.8</v>
+      </c>
+      <c r="F46">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47">
+        <v>21166146</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>3.8</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>21166147</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49">
+        <v>20166155</v>
+      </c>
+      <c r="D49" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50">
+        <v>22166257</v>
+      </c>
+      <c r="D50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F50">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51">
+        <v>20166158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51">
+        <v>7.7</v>
+      </c>
+      <c r="F51">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52">
+        <v>21166156</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>4.8</v>
+      </c>
+      <c r="F52">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53">
+        <v>21166262</v>
+      </c>
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53">
+        <v>7.2</v>
+      </c>
+      <c r="F53">
+        <v>9.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:D53">
+    <sortCondition ref="B2:B53"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>21166101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>9.6</v>
+      </c>
+      <c r="F2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3">
+        <v>20166101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3">
+        <v>8.5</v>
+      </c>
+      <c r="F3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>21166109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>7.6</v>
+      </c>
+      <c r="F4">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>21166110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F5">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>21166207</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>21166209</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>21166210</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>8.4</v>
+      </c>
+      <c r="F8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9">
+        <v>20166113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9">
+        <v>6.6</v>
+      </c>
+      <c r="F9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>21166211</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10">
+        <v>6.6</v>
+      </c>
+      <c r="F10">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11">
+        <v>22166114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>9.6</v>
+      </c>
+      <c r="F11">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12">
+        <v>22166115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>9.6</v>
+      </c>
+      <c r="F12">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>21166220</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13">
+        <v>8.5</v>
+      </c>
+      <c r="F13">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14">
+        <v>21166223</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>9.5</v>
+      </c>
+      <c r="F14">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15">
+        <v>21166224</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15">
+        <v>6.2</v>
+      </c>
+      <c r="F15">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C9">
-        <v>21166109</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>21166226</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F16">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17">
+        <v>22166218</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17">
+        <v>3.1</v>
+      </c>
+      <c r="F17">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>21166110</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>21166122</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>6.5</v>
+      </c>
+      <c r="F18">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>21166124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>7.1</v>
+      </c>
+      <c r="F19">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20">
+        <v>22166122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>8.5</v>
+      </c>
+      <c r="F20">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21">
+        <v>21166234</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21">
+        <v>9.5</v>
+      </c>
+      <c r="F21">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22">
+        <v>21166235</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22">
+        <v>9.5</v>
+      </c>
+      <c r="F22">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23">
+        <v>20166230</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F23">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>21166245</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24">
+        <v>5.6</v>
+      </c>
+      <c r="F24">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>21166127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>6.2</v>
+      </c>
+      <c r="F25">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26">
+        <v>20166239</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F26">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27">
+        <v>22166223</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27">
+        <v>8.4</v>
+      </c>
+      <c r="F27">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28">
+        <v>22166131</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>6.5</v>
+      </c>
+      <c r="F28">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>21166132</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>6.4</v>
+      </c>
+      <c r="F29">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30">
+        <v>20166148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30">
+        <v>6.3</v>
+      </c>
+      <c r="F30">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>21166133</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6.6</v>
+      </c>
+      <c r="F31">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32">
+        <v>22166234</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32">
+        <v>8.5</v>
+      </c>
+      <c r="F32">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>21166136</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>9.5</v>
+      </c>
+      <c r="F33">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>21166139</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F34">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35">
+        <v>21166258</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35">
+        <v>7.6</v>
+      </c>
+      <c r="F35">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>21166141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>8.1</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37">
+        <v>22166241</v>
+      </c>
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37">
+        <v>8.1</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38">
+        <v>22166242</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39">
+        <v>22166250</v>
+      </c>
+      <c r="D39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F39">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40">
+        <v>22166154</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>3.1</v>
+      </c>
+      <c r="F40">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>21166150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>6.5</v>
+      </c>
+      <c r="F41">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>21166151</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>7.1</v>
+      </c>
+      <c r="F42">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43">
+        <v>21166153</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>5.6</v>
+      </c>
+      <c r="F43">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44">
+        <v>21166157</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F44">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45">
+        <v>21166160</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F45">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46">
+        <v>21166161</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>6</v>
+      <c r="F46">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47">
+        <v>21166163</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>4.5</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48">
+        <v>21166164</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>4.7</v>
+      </c>
+      <c r="F48">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49">
+        <v>21166266</v>
+      </c>
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49">
+        <v>9.1</v>
+      </c>
+      <c r="F49">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50">
+        <v>20166165</v>
+      </c>
+      <c r="D50" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50">
+        <v>7.7</v>
+      </c>
+      <c r="F50">
+        <v>5.3</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:D50">
+    <sortCondition ref="B2:B50"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/score/GIS_DC/GIS_DC.xlsx
+++ b/score/GIS_DC/GIS_DC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\python\TL\TLGiang\score\GIS_DC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON\Tieu_luan\score\GIS_DC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993FFF63-2A4A-4930-ADE9-E84FF97E2E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gi01A" sheetId="1" r:id="rId1"/>
@@ -620,7 +621,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -931,20 +932,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -964,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -984,7 +985,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1524,7 +1525,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1544,7 +1545,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1784,7 +1785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1804,7 +1805,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1864,7 +1865,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1944,7 +1945,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2025,7 +2026,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:D54">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D54">
     <sortCondition ref="B2:B54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2033,19 +2034,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2125,7 +2126,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2225,7 +2226,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2365,7 +2366,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2485,7 +2486,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2505,7 +2506,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2545,7 +2546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2625,7 +2626,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2905,7 +2906,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2945,7 +2946,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2985,7 +2986,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3065,7 +3066,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3086,7 +3087,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:D52">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D52">
     <sortCondition ref="B2:B52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3094,19 +3095,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3186,7 +3187,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3306,7 +3307,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3366,7 +3367,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3406,7 +3407,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3606,7 +3607,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3626,7 +3627,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3666,7 +3667,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3906,7 +3907,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4026,7 +4027,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4066,7 +4067,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4167,7 +4168,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:D53">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D53">
     <sortCondition ref="B2:B53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4175,19 +4176,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4227,7 +4228,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4267,7 +4268,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4287,7 +4288,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4347,7 +4348,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4367,7 +4368,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4387,7 +4388,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4407,7 +4408,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4467,7 +4468,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4507,7 +4508,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4547,7 +4548,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4587,7 +4588,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4607,7 +4608,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4627,7 +4628,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4667,7 +4668,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4707,7 +4708,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4747,7 +4748,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4787,7 +4788,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4867,7 +4868,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4927,7 +4928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4947,7 +4948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5067,7 +5068,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5107,7 +5108,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5127,7 +5128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5188,7 +5189,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:D50">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D50">
     <sortCondition ref="B2:B50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
